--- a/data/JH_stats.xlsx
+++ b/data/JH_stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somidi\GitLab\ET_covid19_prediction_project\predictions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somidi\GitLab\ElTigre_Covid19_Prediction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96516990-275B-4AF8-B009-414374EE5557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03CD844-0A8A-4B38-9861-96B56DD2EF86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25695" yWindow="-2505" windowWidth="17820" windowHeight="13290" xr2:uid="{ACE500F6-80C8-4971-8221-FB2BD7F2B6F2}"/>
+    <workbookView xWindow="-25620" yWindow="-2670" windowWidth="23085" windowHeight="13785" xr2:uid="{ACE500F6-80C8-4971-8221-FB2BD7F2B6F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>country</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Israel</t>
   </si>
 </sst>
 </file>
@@ -412,13 +421,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEE7695-BAD8-4660-BACB-C28AB8741983}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -518,6 +530,90 @@
         <v>43925</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>6005</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>99</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>6501</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>10525</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>96</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43932</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
